--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\remotedisk\remotedisk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB20F95-6B57-45F9-9BB2-01F19C1B979A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB297EDD-58ED-4816-B34B-9B03225DE222}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27948" windowHeight="12372" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,12 @@
     <sheet name="music" sheetId="1" r:id="rId1"/>
     <sheet name="image" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,6 +51,14 @@
   </si>
   <si>
     <t>鹿乃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>クリームソーダとシャンデリア (奶油苏打和冕形灯)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓鼠ミツキ&amp;柊樹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -384,15 +392,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.88671875" customWidth="1"/>
+    <col min="2" max="2" width="48.109375" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -435,6 +444,20 @@
       </c>
       <c r="D3">
         <v>239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
